--- a/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>48,5%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>26,83%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>5.088049376016509</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.063338397411785</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.446195983201917</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.6230814774715268</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.1904794198650601</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2149904178758626</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 7,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 4,84</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 6,75</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 129,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,11; 47,63</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 79,54</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.3418935402747429</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-1.788340532497808</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-2.022151667698787</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.006735949644165472</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1322259969304658</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1719491356182492</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.307383018922627</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>6.214910957195872</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>6.497099673015113</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.634686304296093</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.7311995500101149</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6707409406626397</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>21,45%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 2,3</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 1,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 2,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,89; 67,75</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-19,69; 49,57</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 29,73</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>0.9951715813568698</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.60910586470318</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.5863017364964307</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.238595452919575</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1336332012191685</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.07002986258841978</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-0.577096816324555</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-1.044280189626655</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-1.061627073557784</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1164137222175342</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1968089133611225</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1195908677643252</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2.604259906258367</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.371844083407644</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.515945041049847</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.8157643507889613</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6668138763809699</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3473716523268833</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,43%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-15,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 2,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 1,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 0,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-42,68; 43,97</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-48,57; 69,39</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-47,82; 21,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>-0.584928029511269</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-0.3038344978678317</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-0.8633401927690423</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.09638070575677014</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.08701737730887064</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1674654884552333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-3.384832235970642</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-2.524396160743494</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-2.97614430238079</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.436452459424378</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.5339960110691381</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4744133141706885</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1.951635045550502</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1.568124398074467</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1.183925895266834</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4350521710087498</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.6603367562656823</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2987690897286932</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>29,71%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 2,79</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 1,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 1,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 62,06</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 35,15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 25,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.645198229659494</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.7614320826737485</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.4339155997133026</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3210199731558588</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1472725683898049</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.05477608298394052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.2536348430226472</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-0.5827053309316228</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-0.8907747299318252</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.03821324086951512</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1034514981268238</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1024143397020435</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.8815693584273</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2.037921979756091</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1.714271840208222</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6472553330766467</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.4514510675016481</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2402671286848863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
